--- a/Master.xlsx
+++ b/Master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew.thomason\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F004SPC\Documents\GitHub\FracFarmVT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B40B01EF-B521-4989-9CD3-6B397BCB3098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6261D0A0-878F-4365-8CE4-4ADCBC5D9E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{8C48FC08-626C-4ED7-BB4E-BF58D5BC206C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8C48FC08-626C-4ED7-BB4E-BF58D5BC206C}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2234" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2270" uniqueCount="382">
   <si>
     <t>Field_Code</t>
   </si>
@@ -281,9 +281,6 @@
   </si>
   <si>
     <t>MIX</t>
-  </si>
-  <si>
-    <t>AW111</t>
   </si>
   <si>
     <t>EL3</t>
@@ -553,49 +550,7 @@
     <t>D2</t>
   </si>
   <si>
-    <t>LC 1</t>
-  </si>
-  <si>
-    <t>LC 10</t>
-  </si>
-  <si>
-    <t>LC 11</t>
-  </si>
-  <si>
-    <t>LC 12</t>
-  </si>
-  <si>
-    <t>LC 14</t>
-  </si>
-  <si>
-    <t>LC 15</t>
-  </si>
-  <si>
-    <t>LC 16</t>
-  </si>
-  <si>
-    <t>LC 17</t>
-  </si>
-  <si>
-    <t>LC 18</t>
-  </si>
-  <si>
-    <t>LC 19</t>
-  </si>
-  <si>
-    <t>LC 4</t>
-  </si>
-  <si>
-    <t>LC 5</t>
-  </si>
-  <si>
-    <t>LC 6</t>
-  </si>
-  <si>
     <t> </t>
-  </si>
-  <si>
-    <t>LC 8</t>
   </si>
   <si>
     <t>NW24C</t>
@@ -913,9 +868,6 @@
     <t>NW22T</t>
   </si>
   <si>
-    <t>AW5</t>
-  </si>
-  <si>
     <t>H5</t>
   </si>
   <si>
@@ -1167,12 +1119,75 @@
   <si>
     <t>* all data is to 15 cm depth unless otherwise noted (soil organic carbon stocks were measured to 30 cm depth)</t>
   </si>
+  <si>
+    <t>AW11</t>
+  </si>
+  <si>
+    <t>AW51</t>
+  </si>
+  <si>
+    <t>AW52</t>
+  </si>
+  <si>
+    <t>LC1</t>
+  </si>
+  <si>
+    <t>LC10</t>
+  </si>
+  <si>
+    <t>LC11</t>
+  </si>
+  <si>
+    <t>LC12</t>
+  </si>
+  <si>
+    <t>LC14</t>
+  </si>
+  <si>
+    <t>LC15</t>
+  </si>
+  <si>
+    <t>LC16</t>
+  </si>
+  <si>
+    <t>LC17</t>
+  </si>
+  <si>
+    <t>LC18</t>
+  </si>
+  <si>
+    <t>LC19</t>
+  </si>
+  <si>
+    <t>LC4</t>
+  </si>
+  <si>
+    <t>LC5</t>
+  </si>
+  <si>
+    <t>LC6</t>
+  </si>
+  <si>
+    <t>LC8</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>H4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1252,6 +1267,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1323,7 +1344,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1380,9 +1401,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -1510,9 +1532,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1550,7 +1572,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1656,7 +1678,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1798,7 +1820,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1806,47 +1828,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47EA31DE-1ED1-44EE-B4B5-AA953686C08E}">
-  <dimension ref="A1:BG220"/>
+  <dimension ref="A1:BG222"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AI1" sqref="AI1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A219" sqref="A219:XFD222"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="17.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="17.149999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="12.6328125" style="3" customWidth="1"/>
     <col min="2" max="2" width="10" style="5" customWidth="1"/>
     <col min="3" max="3" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.21875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="11.77734375" style="3" customWidth="1"/>
+    <col min="4" max="5" width="12.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.81640625" style="3" customWidth="1"/>
     <col min="9" max="9" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="8.77734375" style="3"/>
-    <col min="14" max="14" width="9.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="8.77734375" style="3"/>
-    <col min="19" max="19" width="9.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="8.81640625" style="3"/>
+    <col min="14" max="14" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.08984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="8.81640625" style="3"/>
+    <col min="19" max="19" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.08984375" style="3" bestFit="1" customWidth="1"/>
     <col min="21" max="24" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="9.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="9.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="29" max="31" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="8.77734375" style="3"/>
-    <col min="34" max="35" width="9.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="36" max="39" width="9.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="8.81640625" style="3"/>
+    <col min="34" max="35" width="9.08984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="36" max="39" width="9.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="9.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="9.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="42" max="50" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="9.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="9.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="52" max="57" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="58" max="16384" width="8.77734375" style="3"/>
+    <col min="58" max="16384" width="8.81640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" s="18" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="1" spans="1:57" s="18" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1857,13 +1879,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="G1" s="19" t="s">
         <v>3</v>
@@ -2019,7 +2041,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="2" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>54</v>
       </c>
@@ -2183,7 +2205,7 @@
         <v>11.736686390532544</v>
       </c>
     </row>
-    <row r="3" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="3" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>59</v>
       </c>
@@ -2349,7 +2371,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="4" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="4" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>63</v>
       </c>
@@ -2515,7 +2537,7 @@
         <v>10.573378839590443</v>
       </c>
     </row>
-    <row r="5" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="5" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>65</v>
       </c>
@@ -2681,7 +2703,7 @@
         <v>11.681818181818183</v>
       </c>
     </row>
-    <row r="6" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="6" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>66</v>
       </c>
@@ -2847,7 +2869,7 @@
         <v>11.331168831168831</v>
       </c>
     </row>
-    <row r="7" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="7" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>68</v>
       </c>
@@ -3013,7 +3035,7 @@
         <v>14.611510791366905</v>
       </c>
     </row>
-    <row r="8" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="8" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>69</v>
       </c>
@@ -3179,7 +3201,7 @@
         <v>13.915129151291511</v>
       </c>
     </row>
-    <row r="9" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="9" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>70</v>
       </c>
@@ -3343,7 +3365,7 @@
         <v>11.784671532846716</v>
       </c>
     </row>
-    <row r="10" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="10" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>71</v>
       </c>
@@ -3509,7 +3531,7 @@
         <v>13.151376146788991</v>
       </c>
     </row>
-    <row r="11" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="11" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>72</v>
       </c>
@@ -3675,7 +3697,7 @@
         <v>10.013888888888889</v>
       </c>
     </row>
-    <row r="12" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="12" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>76</v>
       </c>
@@ -3841,7 +3863,7 @@
         <v>10.017910447761192</v>
       </c>
     </row>
-    <row r="13" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="13" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>77</v>
       </c>
@@ -4001,7 +4023,7 @@
         <v>12.473251028806585</v>
       </c>
     </row>
-    <row r="14" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="14" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A14" s="10" t="s">
         <v>78</v>
       </c>
@@ -4163,7 +4185,7 @@
         <v>11.614886731391586</v>
       </c>
     </row>
-    <row r="15" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="15" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>79</v>
       </c>
@@ -4331,9 +4353,9 @@
         <v>9.9801980198019802</v>
       </c>
     </row>
-    <row r="16" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="16" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>82</v>
+        <v>361</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>80</v>
@@ -4499,9 +4521,9 @@
         <v>11.013513513513514</v>
       </c>
     </row>
-    <row r="17" spans="1:59" ht="17.100000000000001" customHeight="1">
+    <row r="17" spans="1:59" ht="17.149999999999999" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>55</v>
@@ -4665,9 +4687,9 @@
         <v>11.856783919597991</v>
       </c>
     </row>
-    <row r="18" spans="1:59" ht="17.100000000000001" customHeight="1">
+    <row r="18" spans="1:59" ht="17.149999999999999" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>80</v>
@@ -4696,13 +4718,13 @@
         <v>1</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M18" s="4" t="s">
         <v>64</v>
@@ -4831,9 +4853,9 @@
         <v>12.43225806451613</v>
       </c>
     </row>
-    <row r="19" spans="1:59" ht="17.100000000000001" customHeight="1">
+    <row r="19" spans="1:59" ht="17.149999999999999" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>80</v>
@@ -4868,7 +4890,7 @@
         <v>81</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M19" s="4" t="s">
         <v>64</v>
@@ -4997,12 +5019,12 @@
         <v>12.221374045801525</v>
       </c>
     </row>
-    <row r="20" spans="1:59" ht="17.100000000000001" customHeight="1">
+    <row r="20" spans="1:59" ht="17.149999999999999" customHeight="1">
       <c r="A20" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>89</v>
       </c>
       <c r="C20" s="4">
         <v>6.24</v>
@@ -5028,13 +5050,13 @@
         <v>1</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>58</v>
@@ -5163,12 +5185,12 @@
         <v>13.329670329670328</v>
       </c>
     </row>
-    <row r="21" spans="1:59" ht="17.100000000000001" customHeight="1">
+    <row r="21" spans="1:59" ht="17.149999999999999" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C21" s="4">
         <v>4.99</v>
@@ -5194,13 +5216,13 @@
         <v>1</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M21" s="4" t="s">
         <v>58</v>
@@ -5329,9 +5351,9 @@
         <v>13.02661596958175</v>
       </c>
     </row>
-    <row r="22" spans="1:59" ht="17.100000000000001" customHeight="1">
+    <row r="22" spans="1:59" ht="17.149999999999999" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>80</v>
@@ -5493,9 +5515,9 @@
         <v>11.246753246753245</v>
       </c>
     </row>
-    <row r="23" spans="1:59" ht="17.100000000000001" customHeight="1">
+    <row r="23" spans="1:59" ht="17.149999999999999" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>80</v>
@@ -5657,9 +5679,9 @@
         <v>10.978723404255321</v>
       </c>
     </row>
-    <row r="24" spans="1:59" ht="17.100000000000001" customHeight="1">
+    <row r="24" spans="1:59" ht="17.149999999999999" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>55</v>
@@ -5688,13 +5710,13 @@
         <v>1</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M24" s="4" t="s">
         <v>64</v>
@@ -5823,9 +5845,9 @@
         <v>18.092250922509223</v>
       </c>
     </row>
-    <row r="25" spans="1:59" ht="17.100000000000001" customHeight="1">
+    <row r="25" spans="1:59" ht="17.149999999999999" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>55</v>
@@ -5854,13 +5876,13 @@
         <v>1</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M25" s="4" t="s">
         <v>64</v>
@@ -5989,12 +6011,12 @@
         <v>11.650273224043717</v>
       </c>
     </row>
-    <row r="26" spans="1:59" ht="17.100000000000001" customHeight="1">
+    <row r="26" spans="1:59" ht="17.149999999999999" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C26" s="4">
         <v>3.51</v>
@@ -6018,13 +6040,13 @@
         <v>1</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M26" s="4" t="s">
         <v>64</v>
@@ -6153,9 +6175,9 @@
         <v>11.369294605809129</v>
       </c>
     </row>
-    <row r="27" spans="1:59" ht="17.100000000000001" customHeight="1">
+    <row r="27" spans="1:59" ht="17.149999999999999" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>55</v>
@@ -6182,13 +6204,13 @@
         <v>1</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M27" s="4" t="s">
         <v>64</v>
@@ -6317,12 +6339,12 @@
         <v>11.831275720164609</v>
       </c>
     </row>
-    <row r="28" spans="1:59" ht="17.100000000000001" customHeight="1">
+    <row r="28" spans="1:59" ht="17.149999999999999" customHeight="1">
       <c r="A28" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C28" s="7">
         <v>5.28</v>
@@ -6352,10 +6374,10 @@
         <v>56</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N28" s="4">
         <v>12.792529999999999</v>
@@ -6477,9 +6499,9 @@
       </c>
       <c r="BG28" s="4"/>
     </row>
-    <row r="29" spans="1:59" ht="17.100000000000001" customHeight="1">
+    <row r="29" spans="1:59" ht="17.149999999999999" customHeight="1">
       <c r="A29" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>60</v>
@@ -6637,12 +6659,12 @@
       </c>
       <c r="BG29" s="4"/>
     </row>
-    <row r="30" spans="1:59" ht="17.100000000000001" customHeight="1">
+    <row r="30" spans="1:59" ht="17.149999999999999" customHeight="1">
       <c r="A30" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C30" s="7">
         <v>6.29</v>
@@ -6670,7 +6692,7 @@
         <v>56</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M30" s="4" t="s">
         <v>62</v>
@@ -6795,12 +6817,12 @@
       </c>
       <c r="BG30" s="4"/>
     </row>
-    <row r="31" spans="1:59" ht="17.100000000000001" customHeight="1">
+    <row r="31" spans="1:59" ht="17.149999999999999" customHeight="1">
       <c r="A31" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C31" s="4">
         <v>6.34</v>
@@ -6828,10 +6850,10 @@
         <v>56</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N31" s="4">
         <v>10.3559</v>
@@ -6953,12 +6975,12 @@
       </c>
       <c r="BG31" s="4"/>
     </row>
-    <row r="32" spans="1:59" ht="17.100000000000001" customHeight="1">
+    <row r="32" spans="1:59" ht="17.149999999999999" customHeight="1">
       <c r="A32" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C32" s="7">
         <v>5.81</v>
@@ -6988,10 +7010,10 @@
         <v>56</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N32" s="4">
         <v>12.14302</v>
@@ -7113,9 +7135,9 @@
       </c>
       <c r="BG32" s="4"/>
     </row>
-    <row r="33" spans="1:59" ht="17.100000000000001" customHeight="1">
+    <row r="33" spans="1:59" ht="17.149999999999999" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>60</v>
@@ -7153,7 +7175,7 @@
         <v>61</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N33" s="4">
         <v>12.49089</v>
@@ -7275,12 +7297,12 @@
       </c>
       <c r="BG33" s="4"/>
     </row>
-    <row r="34" spans="1:59" ht="17.100000000000001" customHeight="1">
+    <row r="34" spans="1:59" ht="17.149999999999999" customHeight="1">
       <c r="A34" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C34" s="7">
         <v>5.64</v>
@@ -7310,10 +7332,10 @@
         <v>56</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N34" s="4">
         <v>10.69417</v>
@@ -7435,9 +7457,9 @@
       </c>
       <c r="BG34" s="4"/>
     </row>
-    <row r="35" spans="1:59" ht="17.100000000000001" customHeight="1">
+    <row r="35" spans="1:59" ht="17.149999999999999" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>60</v>
@@ -7475,7 +7497,7 @@
         <v>61</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N35" s="4">
         <v>9.3032939999999993</v>
@@ -7598,9 +7620,9 @@
         <v>10.335616438356164</v>
       </c>
     </row>
-    <row r="36" spans="1:59" ht="17.100000000000001" customHeight="1">
+    <row r="36" spans="1:59" ht="17.149999999999999" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>60</v>
@@ -7636,7 +7658,7 @@
         <v>61</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N36" s="4">
         <v>6.6803250429999999</v>
@@ -7760,9 +7782,9 @@
         <v>9.4978902953586495</v>
       </c>
     </row>
-    <row r="37" spans="1:59" ht="17.100000000000001" customHeight="1">
+    <row r="37" spans="1:59" ht="17.149999999999999" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>60</v>
@@ -7798,7 +7820,7 @@
         <v>61</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N37" s="4">
         <v>12.64643648</v>
@@ -7922,9 +7944,9 @@
         <v>10.063492063492063</v>
       </c>
     </row>
-    <row r="38" spans="1:59" ht="17.100000000000001" customHeight="1">
+    <row r="38" spans="1:59" ht="17.149999999999999" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>60</v>
@@ -7960,7 +7982,7 @@
         <v>61</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N38" s="4">
         <v>10.775329340000001</v>
@@ -8084,9 +8106,9 @@
         <v>10.515625</v>
       </c>
     </row>
-    <row r="39" spans="1:59" ht="17.100000000000001" customHeight="1">
+    <row r="39" spans="1:59" ht="17.149999999999999" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>60</v>
@@ -8122,7 +8144,7 @@
         <v>61</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N39" s="4">
         <v>11.234469519999999</v>
@@ -8246,12 +8268,12 @@
         <v>9.6530612244897966</v>
       </c>
     </row>
-    <row r="40" spans="1:59" ht="17.100000000000001" customHeight="1">
+    <row r="40" spans="1:59" ht="17.149999999999999" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C40" s="4">
         <v>5</v>
@@ -8277,13 +8299,13 @@
         <v>1</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M40" s="4" t="s">
         <v>64</v>
@@ -8412,12 +8434,12 @@
         <v>13.583333333333332</v>
       </c>
     </row>
-    <row r="41" spans="1:59" ht="17.100000000000001" customHeight="1">
+    <row r="41" spans="1:59" ht="17.149999999999999" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C41" s="4">
         <v>4.26</v>
@@ -8443,13 +8465,13 @@
         <v>1</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M41" s="4" t="s">
         <v>64</v>
@@ -8578,9 +8600,9 @@
         <v>12.461832061068701</v>
       </c>
     </row>
-    <row r="42" spans="1:59" ht="17.100000000000001" customHeight="1">
+    <row r="42" spans="1:59" ht="17.149999999999999" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>80</v>
@@ -8742,9 +8764,9 @@
         <v>10.344936708860759</v>
       </c>
     </row>
-    <row r="43" spans="1:59" ht="17.100000000000001" customHeight="1">
+    <row r="43" spans="1:59" ht="17.149999999999999" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>80</v>
@@ -8908,9 +8930,9 @@
         <v>11.458762886597937</v>
       </c>
     </row>
-    <row r="44" spans="1:59" ht="17.100000000000001" customHeight="1">
+    <row r="44" spans="1:59" ht="17.149999999999999" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>80</v>
@@ -9074,9 +9096,9 @@
         <v>12.23076923076923</v>
       </c>
     </row>
-    <row r="45" spans="1:59" ht="17.100000000000001" customHeight="1">
+    <row r="45" spans="1:59" ht="17.149999999999999" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>80</v>
@@ -9240,9 +9262,9 @@
         <v>12.049808429118773</v>
       </c>
     </row>
-    <row r="46" spans="1:59" ht="17.100000000000001" customHeight="1">
+    <row r="46" spans="1:59" ht="17.149999999999999" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>60</v>
@@ -9400,9 +9422,9 @@
         <v>10.563573883161512</v>
       </c>
     </row>
-    <row r="47" spans="1:59" ht="17.100000000000001" customHeight="1">
+    <row r="47" spans="1:59" ht="17.149999999999999" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>60</v>
@@ -9562,12 +9584,12 @@
         <v>10.493006993006993</v>
       </c>
     </row>
-    <row r="48" spans="1:59" ht="17.100000000000001" customHeight="1">
+    <row r="48" spans="1:59" ht="17.149999999999999" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C48" s="4">
         <v>3.53</v>
@@ -9599,7 +9621,7 @@
         <v>56</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M48" s="4" t="s">
         <v>58</v>
@@ -9730,12 +9752,12 @@
         <v>12.21505376344086</v>
       </c>
     </row>
-    <row r="49" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="49" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C49" s="4">
         <v>2.35</v>
@@ -9767,7 +9789,7 @@
         <v>56</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M49" s="4" t="s">
         <v>58</v>
@@ -9898,9 +9920,9 @@
         <v>12.572192513368984</v>
       </c>
     </row>
-    <row r="50" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="50" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>60</v>
@@ -9935,7 +9957,7 @@
         <v>56</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M50" s="4" t="s">
         <v>58</v>
@@ -10066,9 +10088,9 @@
         <v>11.254999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="51" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A51" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>60</v>
@@ -10103,7 +10125,7 @@
         <v>56</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M51" s="4" t="s">
         <v>58</v>
@@ -10232,9 +10254,9 @@
         <v>11.448717948717949</v>
       </c>
     </row>
-    <row r="52" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="52" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A52" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>60</v>
@@ -10267,7 +10289,7 @@
         <v>56</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M52" s="4" t="s">
         <v>58</v>
@@ -10398,9 +10420,9 @@
         <v>12.066666666666666</v>
       </c>
     </row>
-    <row r="53" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="53" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>60</v>
@@ -10562,9 +10584,9 @@
         <v>11.283018867924529</v>
       </c>
     </row>
-    <row r="54" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="54" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A54" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>60</v>
@@ -10593,13 +10615,13 @@
         <v>2</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M54" s="4" t="s">
         <v>64</v>
@@ -10730,9 +10752,9 @@
         <v>12.144508670520231</v>
       </c>
     </row>
-    <row r="55" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="55" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A55" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>60</v>
@@ -10896,9 +10918,9 @@
         <v>11.390243902439025</v>
       </c>
     </row>
-    <row r="56" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="56" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A56" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>60</v>
@@ -11060,9 +11082,9 @@
         <v>10.942567567567568</v>
       </c>
     </row>
-    <row r="57" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="57" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A57" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>60</v>
@@ -11089,13 +11111,13 @@
       </c>
       <c r="I57" s="4"/>
       <c r="J57" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M57" s="4" t="s">
         <v>64</v>
@@ -11226,9 +11248,9 @@
         <v>11.432692307692308</v>
       </c>
     </row>
-    <row r="58" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="58" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A58" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>60</v>
@@ -11392,9 +11414,9 @@
         <v>9.7912621359223309</v>
       </c>
     </row>
-    <row r="59" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="59" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A59" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>60</v>
@@ -11558,9 +11580,9 @@
         <v>10.422077922077921</v>
       </c>
     </row>
-    <row r="60" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="60" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A60" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>60</v>
@@ -11722,9 +11744,9 @@
         <v>12.510344827586207</v>
       </c>
     </row>
-    <row r="61" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="61" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A61" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>60</v>
@@ -11888,9 +11910,9 @@
         <v>12.376712328767123</v>
       </c>
     </row>
-    <row r="62" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="62" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A62" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>60</v>
@@ -12054,9 +12076,9 @@
         <v>10.544061302681991</v>
       </c>
     </row>
-    <row r="63" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="63" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A63" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>60</v>
@@ -12220,9 +12242,9 @@
         <v>10.02873563218391</v>
       </c>
     </row>
-    <row r="64" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="64" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A64" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>60</v>
@@ -12388,12 +12410,12 @@
         <v>10.337662337662339</v>
       </c>
     </row>
-    <row r="65" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="65" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A65" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C65" s="4">
         <v>3.93</v>
@@ -12425,10 +12447,10 @@
         <v>56</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M65" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N65" s="4">
         <v>23.13523</v>
@@ -12556,9 +12578,9 @@
         <v>10.729591836734695</v>
       </c>
     </row>
-    <row r="66" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="66" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A66" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>60</v>
@@ -12591,10 +12613,10 @@
         <v>56</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M66" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N66" s="4">
         <v>27.726230000000001</v>
@@ -12722,9 +12744,9 @@
         <v>11.110599078341014</v>
       </c>
     </row>
-    <row r="67" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="67" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A67" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>60</v>
@@ -12884,9 +12906,9 @@
         <v>10.380116959064326</v>
       </c>
     </row>
-    <row r="68" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="68" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A68" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>60</v>
@@ -13044,9 +13066,9 @@
         <v>10.501683501683504</v>
       </c>
     </row>
-    <row r="69" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="69" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A69" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>60</v>
@@ -13210,9 +13232,9 @@
         <v>11.018587360594795</v>
       </c>
     </row>
-    <row r="70" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="70" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A70" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>60</v>
@@ -13376,9 +13398,9 @@
         <v>10.738095238095237</v>
       </c>
     </row>
-    <row r="71" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="71" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A71" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>73</v>
@@ -13407,13 +13429,13 @@
         <v>3</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K71" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M71" s="4" t="s">
         <v>64</v>
@@ -13542,9 +13564,9 @@
         <v>11.571045576407506</v>
       </c>
     </row>
-    <row r="72" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="72" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A72" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>55</v>
@@ -13703,9 +13725,9 @@
         <v>15.429268292682927</v>
       </c>
     </row>
-    <row r="73" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="73" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A73" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>55</v>
@@ -13864,9 +13886,9 @@
         <v>13.705627705627705</v>
       </c>
     </row>
-    <row r="74" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="74" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A74" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>80</v>
@@ -14030,9 +14052,9 @@
         <v>8.4307692307692292</v>
       </c>
     </row>
-    <row r="75" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="75" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A75" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>80</v>
@@ -14196,9 +14218,9 @@
         <v>9.2593856655290114</v>
       </c>
     </row>
-    <row r="76" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="76" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A76" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>55</v>
@@ -14362,9 +14384,9 @@
         <v>10.009615384615385</v>
       </c>
     </row>
-    <row r="77" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="77" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A77" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>55</v>
@@ -14528,12 +14550,12 @@
         <v>9.8720930232558146</v>
       </c>
     </row>
-    <row r="78" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="78" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A78" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C78" s="7">
         <v>5.9</v>
@@ -14559,16 +14581,16 @@
         <v>1</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N78" s="3">
         <v>7.8326777910000001</v>
@@ -14689,9 +14711,9 @@
         <v>9.858006042296072</v>
       </c>
     </row>
-    <row r="79" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="79" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A79" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>55</v>
@@ -14720,16 +14742,16 @@
         <v>1</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L79" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N79" s="3">
         <v>11.06136192</v>
@@ -14850,12 +14872,12 @@
         <v>10.579113924050633</v>
       </c>
     </row>
-    <row r="80" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="80" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A80" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C80" s="11" t="s">
         <v>56</v>
@@ -15014,9 +15036,9 @@
         <v>12.472622478386169</v>
       </c>
     </row>
-    <row r="81" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="81" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A81" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>80</v>
@@ -15054,7 +15076,7 @@
         <v>81</v>
       </c>
       <c r="M81" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N81" s="4">
         <v>86.674610000000001</v>
@@ -15180,9 +15202,9 @@
         <v>14.006535947712417</v>
       </c>
     </row>
-    <row r="82" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="82" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A82" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B82" s="9" t="s">
         <v>60</v>
@@ -15346,9 +15368,9 @@
         <v>13.156626506024097</v>
       </c>
     </row>
-    <row r="83" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="83" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A83" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B83" s="9" t="s">
         <v>60</v>
@@ -15512,9 +15534,9 @@
         <v>11.623762376237622</v>
       </c>
     </row>
-    <row r="84" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="84" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A84" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>60</v>
@@ -15672,9 +15694,9 @@
         <v>11.424908424908425</v>
       </c>
     </row>
-    <row r="85" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="85" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A85" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>60</v>
@@ -15832,9 +15854,9 @@
         <v>11.153256704980842</v>
       </c>
     </row>
-    <row r="86" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="86" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A86" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>60</v>
@@ -15996,9 +16018,9 @@
         <v>12.131914893617022</v>
       </c>
     </row>
-    <row r="87" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="87" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A87" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>60</v>
@@ -16036,7 +16058,7 @@
         <v>61</v>
       </c>
       <c r="M87" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N87" s="4">
         <v>31.522353859999999</v>
@@ -16162,9 +16184,9 @@
         <v>10.650602409638555</v>
       </c>
     </row>
-    <row r="88" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="88" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A88" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>55</v>
@@ -16326,9 +16348,9 @@
         <v>9.4739130434782606</v>
       </c>
     </row>
-    <row r="89" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="89" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A89" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>73</v>
@@ -16357,13 +16379,13 @@
         <v>3</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K89" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M89" s="4" t="s">
         <v>64</v>
@@ -16492,12 +16514,12 @@
         <v>12.122641509433961</v>
       </c>
     </row>
-    <row r="90" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="90" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A90" s="3" t="s">
-        <v>172</v>
+        <v>364</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C90" s="7">
         <v>5.3</v>
@@ -16650,12 +16672,12 @@
         <v>10.768115942028984</v>
       </c>
     </row>
-    <row r="91" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="91" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A91" s="3" t="s">
-        <v>173</v>
+        <v>365</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C91" s="7">
         <v>7.05</v>
@@ -16808,12 +16830,12 @@
         <v>10.875</v>
       </c>
     </row>
-    <row r="92" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="92" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A92" s="3" t="s">
-        <v>174</v>
+        <v>366</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C92" s="7">
         <v>3.6</v>
@@ -16966,12 +16988,12 @@
         <v>11.532646048109966</v>
       </c>
     </row>
-    <row r="93" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="93" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A93" s="3" t="s">
-        <v>175</v>
+        <v>367</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C93" s="7">
         <v>3.43</v>
@@ -17124,12 +17146,12 @@
         <v>11.522483940042827</v>
       </c>
     </row>
-    <row r="94" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="94" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A94" s="3" t="s">
-        <v>176</v>
+        <v>368</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C94" s="7">
         <v>3.42</v>
@@ -17282,12 +17304,12 @@
         <v>10.864498644986451</v>
       </c>
     </row>
-    <row r="95" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="95" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A95" s="3" t="s">
-        <v>177</v>
+        <v>369</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C95" s="7">
         <v>7.51</v>
@@ -17440,9 +17462,9 @@
         <v>11.66552901023891</v>
       </c>
     </row>
-    <row r="96" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="96" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A96" s="3" t="s">
-        <v>178</v>
+        <v>370</v>
       </c>
       <c r="B96" s="5" t="s">
         <v>60</v>
@@ -17598,9 +17620,9 @@
         <v>11.124542124542124</v>
       </c>
     </row>
-    <row r="97" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="97" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A97" s="3" t="s">
-        <v>179</v>
+        <v>371</v>
       </c>
       <c r="B97" s="5" t="s">
         <v>60</v>
@@ -17756,9 +17778,9 @@
         <v>10.777777777777779</v>
       </c>
     </row>
-    <row r="98" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="98" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A98" s="3" t="s">
-        <v>180</v>
+        <v>372</v>
       </c>
       <c r="B98" s="5" t="s">
         <v>60</v>
@@ -17914,9 +17936,9 @@
         <v>10.779527559055119</v>
       </c>
     </row>
-    <row r="99" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="99" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A99" s="3" t="s">
-        <v>181</v>
+        <v>373</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>60</v>
@@ -18072,12 +18094,12 @@
         <v>11.184300341296929</v>
       </c>
     </row>
-    <row r="100" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="100" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A100" s="3" t="s">
-        <v>182</v>
+        <v>374</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C100" s="7">
         <v>7.05</v>
@@ -18230,12 +18252,12 @@
         <v>11.937965260545905</v>
       </c>
     </row>
-    <row r="101" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="101" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A101" s="3" t="s">
-        <v>183</v>
+        <v>375</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C101" s="7">
         <v>4.59</v>
@@ -18261,13 +18283,13 @@
         <v>4</v>
       </c>
       <c r="J101" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K101" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L101" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M101" s="7" t="s">
         <v>58</v>
@@ -18396,12 +18418,12 @@
         <v>11.195876288659795</v>
       </c>
     </row>
-    <row r="102" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="102" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A102" s="3" t="s">
-        <v>184</v>
+        <v>376</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C102" s="7">
         <v>3.6</v>
@@ -18446,10 +18468,10 @@
         <v>19.512810000000002</v>
       </c>
       <c r="Q102" s="4" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="R102" s="4" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="S102" s="4">
         <v>0.26669100000000001</v>
@@ -18568,12 +18590,12 @@
         <v>11.351351351351351</v>
       </c>
     </row>
-    <row r="103" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="103" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A103" s="3" t="s">
-        <v>186</v>
+        <v>377</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C103" s="7">
         <v>7.23</v>
@@ -18618,10 +18640,10 @@
         <v>18.515989999999999</v>
       </c>
       <c r="Q103" s="4" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="R103" s="4" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="S103" s="4">
         <v>0.25827099999999997</v>
@@ -18740,9 +18762,9 @@
         <v>11.470449172576833</v>
       </c>
     </row>
-    <row r="104" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="104" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A104" s="3" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="B104" s="5" t="s">
         <v>60</v>
@@ -18902,9 +18924,9 @@
         <v>11.907590759075909</v>
       </c>
     </row>
-    <row r="105" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="105" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A105" s="3" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>60</v>
@@ -19064,9 +19086,9 @@
         <v>10.216589861751153</v>
       </c>
     </row>
-    <row r="106" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="106" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A106" s="3" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="B106" s="5" t="s">
         <v>55</v>
@@ -19228,9 +19250,9 @@
         <v>10.836158192090394</v>
       </c>
     </row>
-    <row r="107" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="107" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A107" s="3" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B107" s="5" t="s">
         <v>60</v>
@@ -19266,7 +19288,7 @@
         <v>61</v>
       </c>
       <c r="M107" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N107" s="4">
         <v>26.776140789999999</v>
@@ -19390,9 +19412,9 @@
         <v>9.9524886877828056</v>
       </c>
     </row>
-    <row r="108" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="108" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A108" s="3" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="B108" s="5" t="s">
         <v>60</v>
@@ -19552,9 +19574,9 @@
         <v>9.5479452054794525</v>
       </c>
     </row>
-    <row r="109" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="109" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A109" s="3" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B109" s="5" t="s">
         <v>60</v>
@@ -19714,9 +19736,9 @@
         <v>12.93157894736842</v>
       </c>
     </row>
-    <row r="110" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="110" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A110" s="3" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="B110" s="5" t="s">
         <v>60</v>
@@ -19876,9 +19898,9 @@
         <v>10.712328767123289</v>
       </c>
     </row>
-    <row r="111" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="111" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A111" s="3" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="B111" s="5" t="s">
         <v>60</v>
@@ -20038,9 +20060,9 @@
         <v>10.873817034700316</v>
       </c>
     </row>
-    <row r="112" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="112" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A112" s="3" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="B112" s="5" t="s">
         <v>60</v>
@@ -20200,9 +20222,9 @@
         <v>10.423887587822014</v>
       </c>
     </row>
-    <row r="113" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="113" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A113" s="3" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B113" s="5" t="s">
         <v>60</v>
@@ -20362,9 +20384,9 @@
         <v>10.449101796407186</v>
       </c>
     </row>
-    <row r="114" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="114" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A114" s="3" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="B114" s="5" t="s">
         <v>60</v>
@@ -20524,9 +20546,9 @@
         <v>10.503623188405797</v>
       </c>
     </row>
-    <row r="115" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="115" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A115" s="14" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="B115" s="5" t="s">
         <v>60</v>
@@ -20690,12 +20712,12 @@
         <v>11.347432024169184</v>
       </c>
     </row>
-    <row r="116" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="116" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A116" s="11" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C116" s="16">
         <v>4.5199999999999996</v>
@@ -20721,16 +20743,16 @@
         <v>2</v>
       </c>
       <c r="J116" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K116" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L116" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M116" s="4" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="N116" s="4">
         <v>55.327571259999999</v>
@@ -20856,9 +20878,9 @@
         <v>12.515243902439025</v>
       </c>
     </row>
-    <row r="117" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="117" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A117" s="11" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>60</v>
@@ -21022,9 +21044,9 @@
         <v>11.122549019607845</v>
       </c>
     </row>
-    <row r="118" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="118" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A118" s="11" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>55</v>
@@ -21186,12 +21208,12 @@
         <v>9.8172043010752681</v>
       </c>
     </row>
-    <row r="119" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="119" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A119" s="11" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C119" s="3">
         <v>3.4730021014140999</v>
@@ -21223,7 +21245,7 @@
         <v>56</v>
       </c>
       <c r="L119" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M119" s="4" t="s">
         <v>64</v>
@@ -21352,9 +21374,9 @@
         <v>9.1422018348623855</v>
       </c>
     </row>
-    <row r="120" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="120" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A120" s="11" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>73</v>
@@ -21389,7 +21411,7 @@
         <v>56</v>
       </c>
       <c r="L120" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M120" s="4" t="s">
         <v>64</v>
@@ -21518,12 +21540,12 @@
         <v>9.7558139534883708</v>
       </c>
     </row>
-    <row r="121" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="121" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A121" s="11" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C121" s="3">
         <v>5.0951241593105001</v>
@@ -21555,10 +21577,10 @@
         <v>56</v>
       </c>
       <c r="L121" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M121" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N121" s="4">
         <v>13.19932</v>
@@ -21684,12 +21706,12 @@
         <v>10.606779661016949</v>
       </c>
     </row>
-    <row r="122" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="122" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A122" s="11" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C122" s="3">
         <v>4.1539285123146996</v>
@@ -21721,7 +21743,7 @@
         <v>56</v>
       </c>
       <c r="L122" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M122" s="4" t="s">
         <v>64</v>
@@ -21848,12 +21870,12 @@
         <v>9.89453125</v>
       </c>
     </row>
-    <row r="123" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="123" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A123" s="11" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C123" s="3">
         <v>4.3142968081727</v>
@@ -21883,7 +21905,7 @@
         <v>56</v>
       </c>
       <c r="L123" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M123" s="4" t="s">
         <v>64</v>
@@ -22012,12 +22034,12 @@
         <v>10.56797583081571</v>
       </c>
     </row>
-    <row r="124" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="124" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A124" s="11" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C124" s="3">
         <v>6.2935369055099004</v>
@@ -22049,7 +22071,7 @@
         <v>56</v>
       </c>
       <c r="L124" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M124" s="4" t="s">
         <v>62</v>
@@ -22176,9 +22198,9 @@
         <v>10.043256997455471</v>
       </c>
     </row>
-    <row r="125" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="125" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A125" s="11" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>55</v>
@@ -22213,10 +22235,10 @@
         <v>56</v>
       </c>
       <c r="L125" s="4" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="M125" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N125" s="4">
         <v>20.940770000000001</v>
@@ -22342,12 +22364,12 @@
         <v>10.061349693251534</v>
       </c>
     </row>
-    <row r="126" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="126" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A126" s="11" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C126" s="3">
         <v>3.4919411060528001</v>
@@ -22379,10 +22401,10 @@
         <v>56</v>
       </c>
       <c r="L126" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M126" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N126" s="4">
         <v>34.786549999999998</v>
@@ -22508,12 +22530,12 @@
         <v>9.9117647058823533</v>
       </c>
     </row>
-    <row r="127" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="127" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A127" s="11" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C127" s="3">
         <v>3.44249479</v>
@@ -22544,7 +22566,7 @@
         <v>56</v>
       </c>
       <c r="M127" s="4" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="N127" s="4">
         <v>37</v>
@@ -22666,9 +22688,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="128" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="128" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A128" s="11" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="B128" s="5" t="s">
         <v>55</v>
@@ -22697,16 +22719,16 @@
         <v>3</v>
       </c>
       <c r="J128" s="4" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="K128" s="4" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="L128" s="4" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="M128" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N128" s="4">
         <v>25.945620000000002</v>
@@ -22834,9 +22856,9 @@
         <v>10.198924731182796</v>
       </c>
     </row>
-    <row r="129" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="129" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A129" s="11" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="B129" s="5" t="s">
         <v>55</v>
@@ -22865,16 +22887,16 @@
         <v>1</v>
       </c>
       <c r="J129" s="4" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="K129" s="4" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="L129" s="4" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="M129" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N129" s="4">
         <v>10.65695</v>
@@ -23002,9 +23024,9 @@
         <v>10.254847645429363</v>
       </c>
     </row>
-    <row r="130" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="130" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A130" s="11" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="B130" s="9" t="s">
         <v>60</v>
@@ -23033,10 +23055,10 @@
         <v>1</v>
       </c>
       <c r="J130" s="3" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="K130" s="3" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="L130" s="3" t="s">
         <v>60</v>
@@ -23163,9 +23185,9 @@
         <v>11.278911564625851</v>
       </c>
     </row>
-    <row r="131" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="131" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A131" s="11" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="B131" s="9" t="s">
         <v>60</v>
@@ -23324,9 +23346,9 @@
         <v>13.870833333333335</v>
       </c>
     </row>
-    <row r="132" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="132" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A132" s="11" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="B132" s="9" t="s">
         <v>60</v>
@@ -23485,9 +23507,9 @@
         <v>11.228070175438596</v>
       </c>
     </row>
-    <row r="133" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="133" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A133" s="11" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="B133" s="9" t="s">
         <v>55</v>
@@ -23516,13 +23538,13 @@
         <v>1</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="K133" s="3" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="L133" s="3" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="M133" s="3" t="s">
         <v>64</v>
@@ -23646,9 +23668,9 @@
         <v>11.417061611374407</v>
       </c>
     </row>
-    <row r="134" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="134" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A134" s="11" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="B134" s="5" t="s">
         <v>60</v>
@@ -23808,12 +23830,12 @@
         <v>12.640816326530611</v>
       </c>
     </row>
-    <row r="135" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="135" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A135" s="11" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C135" s="16">
         <v>3.54</v>
@@ -23843,7 +23865,7 @@
         <v>56</v>
       </c>
       <c r="L135" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M135" s="4" t="s">
         <v>67</v>
@@ -23970,9 +23992,9 @@
         <v>11.212996389891694</v>
       </c>
     </row>
-    <row r="136" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="136" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A136" s="11" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="B136" s="5" t="s">
         <v>60</v>
@@ -24132,9 +24154,9 @@
         <v>13.475352112676058</v>
       </c>
     </row>
-    <row r="137" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="137" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A137" s="11" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="B137" s="5" t="s">
         <v>80</v>
@@ -24298,9 +24320,9 @@
         <v>11.120967741935484</v>
       </c>
     </row>
-    <row r="138" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="138" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A138" s="11" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="B138" s="5" t="s">
         <v>80</v>
@@ -24338,7 +24360,7 @@
         <v>81</v>
       </c>
       <c r="M138" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N138" s="4">
         <v>83.121979999999994</v>
@@ -24464,9 +24486,9 @@
         <v>12.716216216216216</v>
       </c>
     </row>
-    <row r="139" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="139" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A139" s="11" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="B139" s="5" t="s">
         <v>60</v>
@@ -24504,7 +24526,7 @@
         <v>61</v>
       </c>
       <c r="M139" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N139" s="4">
         <v>27.692538549999998</v>
@@ -24630,9 +24652,9 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="140" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="140" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A140" s="3" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="B140" s="5" t="s">
         <v>60</v>
@@ -24796,9 +24818,9 @@
         <v>10.159292035398229</v>
       </c>
     </row>
-    <row r="141" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="141" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A141" s="3" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="B141" s="5" t="s">
         <v>60</v>
@@ -24960,9 +24982,9 @@
         <v>11.371287128712872</v>
       </c>
     </row>
-    <row r="142" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="142" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A142" s="3" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="B142" s="5" t="s">
         <v>60</v>
@@ -25124,9 +25146,9 @@
         <v>11.009569377990433</v>
       </c>
     </row>
-    <row r="143" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="143" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A143" s="3" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B143" s="5" t="s">
         <v>60</v>
@@ -25286,9 +25308,9 @@
         <v>4101</v>
       </c>
     </row>
-    <row r="144" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="144" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A144" s="3" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="B144" s="5" t="s">
         <v>60</v>
@@ -25324,7 +25346,7 @@
         <v>61</v>
       </c>
       <c r="M144" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N144" s="4">
         <v>29.22608</v>
@@ -25448,9 +25470,9 @@
         <v>10.900958466453673</v>
       </c>
     </row>
-    <row r="145" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="145" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A145" s="3" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="B145" s="5" t="s">
         <v>60</v>
@@ -25614,9 +25636,9 @@
         <v>11.83177570093458</v>
       </c>
     </row>
-    <row r="146" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="146" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A146" s="3" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="B146" s="5" t="s">
         <v>60</v>
@@ -25654,7 +25676,7 @@
         <v>61</v>
       </c>
       <c r="M146" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N146" s="4">
         <v>29.45351981</v>
@@ -25780,9 +25802,9 @@
         <v>11.448412698412698</v>
       </c>
     </row>
-    <row r="147" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="147" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A147" s="3" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="B147" s="5" t="s">
         <v>60</v>
@@ -25942,9 +25964,9 @@
         <v>11.048275862068968</v>
       </c>
     </row>
-    <row r="148" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="148" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A148" s="3" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="B148" s="5" t="s">
         <v>60</v>
@@ -26108,9 +26130,9 @@
         <v>11.078947368421051</v>
       </c>
     </row>
-    <row r="149" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="149" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A149" s="3" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="B149" s="5" t="s">
         <v>55</v>
@@ -26139,13 +26161,13 @@
         <v>1</v>
       </c>
       <c r="J149" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K149" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L149" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M149" s="4" t="s">
         <v>64</v>
@@ -26274,9 +26296,9 @@
         <v>12.008928571428571</v>
       </c>
     </row>
-    <row r="150" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="150" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A150" s="3" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="B150" s="5" t="s">
         <v>55</v>
@@ -26305,13 +26327,13 @@
         <v>1</v>
       </c>
       <c r="J150" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K150" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L150" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M150" s="4" t="s">
         <v>58</v>
@@ -26440,12 +26462,12 @@
         <v>13.833333333333334</v>
       </c>
     </row>
-    <row r="151" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="151" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A151" s="3" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C151" s="4">
         <v>4.67</v>
@@ -26471,13 +26493,13 @@
         <v>3</v>
       </c>
       <c r="J151" s="4" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="K151" s="4" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="L151" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M151" s="4" t="s">
         <v>58</v>
@@ -26608,12 +26630,12 @@
         <v>11.98283261802575</v>
       </c>
     </row>
-    <row r="152" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="152" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A152" s="3" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C152" s="4">
         <v>2.2999999999999998</v>
@@ -26639,13 +26661,13 @@
         <v>3</v>
       </c>
       <c r="J152" s="4" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="K152" s="4" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="L152" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M152" s="4" t="s">
         <v>58</v>
@@ -26776,12 +26798,12 @@
         <v>11.876470588235295</v>
       </c>
     </row>
-    <row r="153" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="153" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A153" s="3" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C153" s="7">
         <v>5.77</v>
@@ -26807,16 +26829,16 @@
         <v>1</v>
       </c>
       <c r="J153" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K153" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L153" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M153" s="4" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="N153" s="4">
         <v>52.087240000000001</v>
@@ -26942,9 +26964,9 @@
         <v>11.618055555555555</v>
       </c>
     </row>
-    <row r="154" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="154" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A154" s="3" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="B154" s="5" t="s">
         <v>80</v>
@@ -27108,9 +27130,9 @@
         <v>12.479532163742688</v>
       </c>
     </row>
-    <row r="155" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="155" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A155" s="3" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="B155" s="5" t="s">
         <v>80</v>
@@ -27274,9 +27296,9 @@
         <v>11.916216216216215</v>
       </c>
     </row>
-    <row r="156" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="156" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A156" s="3" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="B156" s="5" t="s">
         <v>60</v>
@@ -27436,9 +27458,9 @@
         <v>10.76271186440678</v>
       </c>
     </row>
-    <row r="157" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="157" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A157" s="3" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="B157" s="5" t="s">
         <v>60</v>
@@ -27598,9 +27620,9 @@
         <v>10.756880733944955</v>
       </c>
     </row>
-    <row r="158" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="158" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A158" s="3" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="B158" s="5" t="s">
         <v>60</v>
@@ -27760,9 +27782,9 @@
         <v>13.77533039647577</v>
       </c>
     </row>
-    <row r="159" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="159" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A159" s="3" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="B159" s="5" t="s">
         <v>60</v>
@@ -27922,9 +27944,9 @@
         <v>11.823188405797101</v>
       </c>
     </row>
-    <row r="160" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="160" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A160" s="3" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="B160" s="5" t="s">
         <v>60</v>
@@ -28084,9 +28106,9 @@
         <v>10.679245283018867</v>
       </c>
     </row>
-    <row r="161" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="161" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A161" s="3" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="B161" s="5" t="s">
         <v>60</v>
@@ -28246,12 +28268,12 @@
         <v>10.913513513513514</v>
       </c>
     </row>
-    <row r="162" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="162" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A162" s="3" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C162" s="4">
         <v>2.25</v>
@@ -28412,9 +28434,9 @@
         <v>11.082706766917292</v>
       </c>
     </row>
-    <row r="163" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="163" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A163" s="3" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="B163" s="5" t="s">
         <v>55</v>
@@ -28443,13 +28465,13 @@
         <v>1</v>
       </c>
       <c r="J163" s="3" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="K163" s="3" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="L163" s="3" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="M163" s="3" t="s">
         <v>58</v>
@@ -28573,12 +28595,12 @@
         <v>13.455357142857142</v>
       </c>
     </row>
-    <row r="164" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="164" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A164" s="3" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C164" s="7">
         <v>5.33</v>
@@ -28604,13 +28626,13 @@
         <v>1</v>
       </c>
       <c r="J164" s="3" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="K164" s="3" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="L164" s="3" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="M164" s="3" t="s">
         <v>64</v>
@@ -28734,9 +28756,9 @@
         <v>12.316993464052288</v>
       </c>
     </row>
-    <row r="165" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="165" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A165" s="3" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="B165" s="5" t="s">
         <v>80</v>
@@ -28774,7 +28796,7 @@
         <v>81</v>
       </c>
       <c r="M165" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N165" s="4">
         <v>12.280559999999999</v>
@@ -28900,9 +28922,9 @@
         <v>10.498422712933753</v>
       </c>
     </row>
-    <row r="166" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="166" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A166" s="3" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="B166" s="5" t="s">
         <v>60</v>
@@ -29066,9 +29088,9 @@
         <v>10.063400576368878</v>
       </c>
     </row>
-    <row r="167" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="167" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A167" s="3" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="B167" s="5" t="s">
         <v>60</v>
@@ -29232,9 +29254,9 @@
         <v>10.330708661417322</v>
       </c>
     </row>
-    <row r="168" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="168" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A168" s="3" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="B168" s="5" t="s">
         <v>60</v>
@@ -29394,9 +29416,9 @@
         <v>11.415384615384616</v>
       </c>
     </row>
-    <row r="169" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="169" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A169" s="3" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="B169" s="5" t="s">
         <v>60</v>
@@ -29556,9 +29578,9 @@
         <v>11.366438356164384</v>
       </c>
     </row>
-    <row r="170" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="170" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A170" s="3" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="B170" s="5" t="s">
         <v>60</v>
@@ -29722,9 +29744,9 @@
         <v>10.712264150943396</v>
       </c>
     </row>
-    <row r="171" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="171" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A171" s="3" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="B171" s="5" t="s">
         <v>60</v>
@@ -29888,9 +29910,9 @@
         <v>10.582010582010582</v>
       </c>
     </row>
-    <row r="172" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="172" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A172" s="7" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="B172" s="5" t="s">
         <v>60</v>
@@ -30052,9 +30074,9 @@
         <v>10.140271493212669</v>
       </c>
     </row>
-    <row r="173" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="173" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A173" s="7" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="B173" s="5" t="s">
         <v>60</v>
@@ -30216,9 +30238,9 @@
         <v>10.043103448275861</v>
       </c>
     </row>
-    <row r="174" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="174" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A174" s="7" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="B174" s="5" t="s">
         <v>60</v>
@@ -30380,9 +30402,9 @@
         <v>9.8061224489795915</v>
       </c>
     </row>
-    <row r="175" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="175" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A175" s="7" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="B175" s="5" t="s">
         <v>60</v>
@@ -30409,10 +30431,10 @@
       </c>
       <c r="I175" s="4"/>
       <c r="J175" s="4" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="K175" s="4" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="L175" s="4" t="s">
         <v>61</v>
@@ -30544,9 +30566,9 @@
         <v>10.075396825396826</v>
       </c>
     </row>
-    <row r="176" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="176" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A176" s="7" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="B176" s="5" t="s">
         <v>60</v>
@@ -30708,9 +30730,9 @@
         <v>9.5896226415094343</v>
       </c>
     </row>
-    <row r="177" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="177" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A177" s="7" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="B177" s="5" t="s">
         <v>60</v>
@@ -30872,9 +30894,9 @@
         <v>9.4223300970873787</v>
       </c>
     </row>
-    <row r="178" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="178" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A178" s="7" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="B178" s="5" t="s">
         <v>60</v>
@@ -31036,9 +31058,9 @@
         <v>9.3389121338912151</v>
       </c>
     </row>
-    <row r="179" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="179" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A179" s="7" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="B179" s="5" t="s">
         <v>60</v>
@@ -31200,9 +31222,9 @@
         <v>9.3480176211453738</v>
       </c>
     </row>
-    <row r="180" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="180" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A180" s="7" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="B180" s="5" t="s">
         <v>60</v>
@@ -31229,10 +31251,10 @@
       </c>
       <c r="I180" s="4"/>
       <c r="J180" s="4" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="K180" s="4" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="L180" s="4" t="s">
         <v>61</v>
@@ -31364,9 +31386,9 @@
         <v>9.8132295719844347</v>
       </c>
     </row>
-    <row r="181" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="181" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A181" s="7" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="B181" s="5" t="s">
         <v>60</v>
@@ -31528,9 +31550,9 @@
         <v>9.5825242718446599</v>
       </c>
     </row>
-    <row r="182" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="182" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A182" s="7" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="B182" s="5" t="s">
         <v>60</v>
@@ -31563,7 +31585,7 @@
         <v>61</v>
       </c>
       <c r="L182" s="4" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="M182" s="4" t="s">
         <v>64</v>
@@ -31692,9 +31714,9 @@
         <v>9.5210084033613445</v>
       </c>
     </row>
-    <row r="183" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="183" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A183" s="7" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="B183" s="5" t="s">
         <v>60</v>
@@ -31856,9 +31878,9 @@
         <v>9.497737556561086</v>
       </c>
     </row>
-    <row r="184" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="184" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A184" s="7" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="B184" s="5" t="s">
         <v>60</v>
@@ -32020,9 +32042,9 @@
         <v>9.6171875</v>
       </c>
     </row>
-    <row r="185" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="185" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A185" s="7" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="B185" s="5" t="s">
         <v>60</v>
@@ -32184,9 +32206,9 @@
         <v>9.2838427947598241</v>
       </c>
     </row>
-    <row r="186" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="186" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A186" s="7" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="B186" s="5" t="s">
         <v>60</v>
@@ -32219,7 +32241,7 @@
         <v>61</v>
       </c>
       <c r="L186" s="4" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="M186" s="4" t="s">
         <v>64</v>
@@ -32348,9 +32370,9 @@
         <v>9.3514644351464433</v>
       </c>
     </row>
-    <row r="187" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="187" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A187" s="7" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="B187" s="5" t="s">
         <v>60</v>
@@ -32512,9 +32534,9 @@
         <v>9.4976303317535553</v>
       </c>
     </row>
-    <row r="188" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="188" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A188" s="7" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="B188" s="5" t="s">
         <v>60</v>
@@ -32547,7 +32569,7 @@
         <v>61</v>
       </c>
       <c r="L188" s="4" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="M188" s="4" t="s">
         <v>64</v>
@@ -32676,9 +32698,9 @@
         <v>9.8279069767441865</v>
       </c>
     </row>
-    <row r="189" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="189" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A189" s="7" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="B189" s="5" t="s">
         <v>60</v>
@@ -32705,16 +32727,16 @@
       </c>
       <c r="I189" s="4"/>
       <c r="J189" s="4" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="K189" s="4" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="L189" s="4" t="s">
         <v>61</v>
       </c>
       <c r="M189" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N189" s="4">
         <v>21.14284</v>
@@ -32840,9 +32862,9 @@
         <v>10.28776978417266</v>
       </c>
     </row>
-    <row r="190" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="190" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A190" s="7" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B190" s="5" t="s">
         <v>60</v>
@@ -32869,16 +32891,16 @@
       </c>
       <c r="I190" s="4"/>
       <c r="J190" s="4" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="K190" s="4" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="L190" s="4" t="s">
         <v>61</v>
       </c>
       <c r="M190" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N190" s="4">
         <v>22.116070000000001</v>
@@ -33004,9 +33026,9 @@
         <v>10.641891891891893</v>
       </c>
     </row>
-    <row r="191" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="191" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A191" s="7" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="B191" s="5" t="s">
         <v>60</v>
@@ -33039,10 +33061,10 @@
         <v>61</v>
       </c>
       <c r="L191" s="4" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="M191" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N191" s="4">
         <v>26.646920000000001</v>
@@ -33168,9 +33190,9 @@
         <v>10.316017316017316</v>
       </c>
     </row>
-    <row r="192" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="192" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A192" s="7" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="B192" s="5" t="s">
         <v>60</v>
@@ -33332,9 +33354,9 @@
         <v>10.183098591549296</v>
       </c>
     </row>
-    <row r="193" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="193" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A193" s="7" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="B193" s="5" t="s">
         <v>60</v>
@@ -33496,9 +33518,9 @@
         <v>9.7639484978540771</v>
       </c>
     </row>
-    <row r="194" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="194" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A194" s="7" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="B194" s="5" t="s">
         <v>60</v>
@@ -33660,9 +33682,9 @@
         <v>9.6818181818181817</v>
       </c>
     </row>
-    <row r="195" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="195" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A195" s="7" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="B195" s="5" t="s">
         <v>60</v>
@@ -33824,9 +33846,9 @@
         <v>9.973684210526315</v>
       </c>
     </row>
-    <row r="196" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="196" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A196" s="3" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="B196" s="5" t="s">
         <v>55</v>
@@ -33988,9 +34010,9 @@
         <v>12.523952095808381</v>
       </c>
     </row>
-    <row r="197" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="197" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A197" s="3" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="B197" s="5" t="s">
         <v>60</v>
@@ -34148,9 +34170,9 @@
         <v>10.634146341463415</v>
       </c>
     </row>
-    <row r="198" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="198" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A198" s="3" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B198" s="5" t="s">
         <v>60</v>
@@ -34310,9 +34332,9 @@
         <v>10.55</v>
       </c>
     </row>
-    <row r="199" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="199" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A199" s="3" t="s">
-        <v>292</v>
+        <v>362</v>
       </c>
       <c r="B199" s="5" t="s">
         <v>80</v>
@@ -34476,9 +34498,9 @@
         <v>13.10441767068273</v>
       </c>
     </row>
-    <row r="200" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="200" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A200" s="3" t="s">
-        <v>292</v>
+        <v>363</v>
       </c>
       <c r="B200" s="5" t="s">
         <v>80</v>
@@ -34642,12 +34664,12 @@
         <v>13.961352657004833</v>
       </c>
     </row>
-    <row r="201" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="201" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A201" s="3" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G201" s="12">
         <v>44320</v>
@@ -34659,13 +34681,13 @@
         <v>1</v>
       </c>
       <c r="J201" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K201" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L201" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M201" s="3" t="s">
         <v>67</v>
@@ -34777,9 +34799,9 @@
         <v>10.674911660777386</v>
       </c>
     </row>
-    <row r="202" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="202" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A202" s="3" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>55</v>
@@ -34794,13 +34816,13 @@
         <v>1</v>
       </c>
       <c r="J202" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K202" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L202" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M202" s="3" t="s">
         <v>62</v>
@@ -34912,9 +34934,9 @@
         <v>11.446601941747574</v>
       </c>
     </row>
-    <row r="203" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="203" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A203" s="3" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>55</v>
@@ -34929,13 +34951,13 @@
         <v>1</v>
       </c>
       <c r="J203" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K203" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L203" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M203" s="3" t="s">
         <v>62</v>
@@ -35047,9 +35069,9 @@
         <v>10.592057761732852</v>
       </c>
     </row>
-    <row r="204" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="204" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A204" s="3" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>55</v>
@@ -35064,13 +35086,13 @@
         <v>1</v>
       </c>
       <c r="J204" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K204" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L204" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M204" s="3" t="s">
         <v>62</v>
@@ -35182,9 +35204,9 @@
         <v>10.03125</v>
       </c>
     </row>
-    <row r="205" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="205" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A205" s="3" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>55</v>
@@ -35199,13 +35221,13 @@
         <v>1</v>
       </c>
       <c r="J205" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K205" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L205" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M205" s="3" t="s">
         <v>62</v>
@@ -35317,9 +35339,9 @@
         <v>10.764011799410028</v>
       </c>
     </row>
-    <row r="206" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="206" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A206" s="3" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>55</v>
@@ -35334,16 +35356,16 @@
         <v>1</v>
       </c>
       <c r="J206" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K206" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L206" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M206" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N206" s="3">
         <v>23.748080000000002</v>
@@ -35452,9 +35474,9 @@
         <v>12.226277372262773</v>
       </c>
     </row>
-    <row r="207" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="207" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A207" s="3" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>55</v>
@@ -35469,13 +35491,13 @@
         <v>1</v>
       </c>
       <c r="J207" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K207" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L207" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M207" s="3" t="s">
         <v>64</v>
@@ -35587,9 +35609,9 @@
         <v>10.805243445692883</v>
       </c>
     </row>
-    <row r="208" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="208" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A208" s="3" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>55</v>
@@ -35604,13 +35626,13 @@
         <v>1</v>
       </c>
       <c r="J208" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K208" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L208" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M208" s="3" t="s">
         <v>62</v>
@@ -35722,9 +35744,9 @@
         <v>10.449339207048457</v>
       </c>
     </row>
-    <row r="209" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="209" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A209" s="3" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>55</v>
@@ -35739,16 +35761,16 @@
         <v>1</v>
       </c>
       <c r="J209" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K209" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L209" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M209" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N209" s="3">
         <v>10.863350000000001</v>
@@ -35857,9 +35879,9 @@
         <v>10.63716814159292</v>
       </c>
     </row>
-    <row r="210" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="210" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A210" s="3" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>55</v>
@@ -35874,16 +35896,16 @@
         <v>1</v>
       </c>
       <c r="J210" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K210" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L210" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M210" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N210" s="3">
         <v>8.9501290000000004</v>
@@ -35992,12 +36014,12 @@
         <v>10.976744186046512</v>
       </c>
     </row>
-    <row r="211" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="211" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A211" s="3" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G211" s="12">
         <v>44320</v>
@@ -36009,13 +36031,13 @@
         <v>1</v>
       </c>
       <c r="J211" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K211" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L211" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M211" s="3" t="s">
         <v>62</v>
@@ -36127,12 +36149,12 @@
         <v>10.03448275862069</v>
       </c>
     </row>
-    <row r="212" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="212" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A212" s="3" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G212" s="12">
         <v>44320</v>
@@ -36144,13 +36166,13 @@
         <v>1</v>
       </c>
       <c r="J212" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K212" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L212" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M212" s="3" t="s">
         <v>62</v>
@@ -36262,12 +36284,12 @@
         <v>11.136807817589577</v>
       </c>
     </row>
-    <row r="213" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="213" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A213" s="3" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G213" s="12">
         <v>44320</v>
@@ -36279,16 +36301,16 @@
         <v>1</v>
       </c>
       <c r="J213" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K213" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L213" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M213" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N213" s="3">
         <v>10.258850000000001</v>
@@ -36397,12 +36419,12 @@
         <v>10.835390946502057</v>
       </c>
     </row>
-    <row r="214" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="214" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A214" s="3" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G214" s="12">
         <v>44320</v>
@@ -36414,16 +36436,16 @@
         <v>1</v>
       </c>
       <c r="J214" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K214" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L214" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M214" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N214" s="3">
         <v>8.6583600000000001</v>
@@ -36532,12 +36554,12 @@
         <v>10.777777777777779</v>
       </c>
     </row>
-    <row r="215" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="215" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A215" s="3" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G215" s="12">
         <v>44320</v>
@@ -36549,16 +36571,16 @@
         <v>1</v>
       </c>
       <c r="J215" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K215" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L215" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M215" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N215" s="3">
         <v>11.45865</v>
@@ -36667,12 +36689,12 @@
         <v>10.97119341563786</v>
       </c>
     </row>
-    <row r="216" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="216" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A216" s="3" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G216" s="12">
         <v>44320</v>
@@ -36684,13 +36706,13 @@
         <v>1</v>
       </c>
       <c r="J216" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K216" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L216" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M216" s="3" t="s">
         <v>62</v>
@@ -36802,12 +36824,12 @@
         <v>10.867741935483872</v>
       </c>
     </row>
-    <row r="217" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="217" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A217" s="3" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G217" s="12">
         <v>44320</v>
@@ -36819,13 +36841,13 @@
         <v>1</v>
       </c>
       <c r="J217" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K217" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L217" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M217" s="3" t="s">
         <v>64</v>
@@ -36937,12 +36959,12 @@
         <v>11.248730964467006</v>
       </c>
     </row>
-    <row r="218" spans="1:57" ht="17.100000000000001" customHeight="1">
+    <row r="218" spans="1:57" ht="17.149999999999999" customHeight="1">
       <c r="A218" s="3" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G218" s="12">
         <v>44320</v>
@@ -36954,13 +36976,13 @@
         <v>1</v>
       </c>
       <c r="J218" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K218" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L218" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M218" s="3" t="s">
         <v>64</v>
@@ -37072,91 +37094,571 @@
         <v>10.578723404255321</v>
       </c>
     </row>
-    <row r="219" spans="1:57" ht="17.100000000000001" customHeight="1">
-      <c r="G219" s="6"/>
-      <c r="H219" s="6"/>
-      <c r="I219" s="4"/>
-      <c r="J219" s="4"/>
-      <c r="K219" s="4"/>
-      <c r="L219" s="4"/>
-      <c r="M219" s="4"/>
-      <c r="N219" s="4"/>
-      <c r="O219" s="4"/>
-      <c r="P219" s="4"/>
-      <c r="Q219" s="4"/>
-      <c r="R219" s="4"/>
-      <c r="Y219" s="4"/>
-      <c r="Z219" s="4"/>
-      <c r="AA219" s="4"/>
-      <c r="AB219" s="4"/>
-      <c r="AD219" s="4"/>
-      <c r="AE219" s="4"/>
-      <c r="AF219" s="4"/>
-      <c r="AG219" s="4"/>
-      <c r="AJ219" s="4"/>
-      <c r="AK219" s="4"/>
-      <c r="AL219" s="4"/>
-      <c r="AM219" s="4"/>
-      <c r="AN219" s="4"/>
-      <c r="AO219" s="4"/>
-      <c r="AP219" s="4"/>
-      <c r="AQ219" s="4"/>
-      <c r="AR219" s="4"/>
-      <c r="AS219" s="4"/>
-      <c r="AT219" s="4"/>
-      <c r="AU219" s="4"/>
-      <c r="AV219" s="4"/>
-      <c r="AW219" s="4"/>
-      <c r="AX219" s="4"/>
-      <c r="AY219" s="4"/>
-      <c r="AZ219" s="4"/>
-      <c r="BA219" s="4"/>
-      <c r="BB219" s="4"/>
-      <c r="BC219" s="4"/>
-      <c r="BD219" s="4"/>
-    </row>
-    <row r="220" spans="1:57" ht="17.100000000000001" customHeight="1">
-      <c r="G220" s="6"/>
-      <c r="H220" s="6"/>
-      <c r="I220" s="4"/>
-      <c r="J220" s="4"/>
-      <c r="K220" s="4"/>
-      <c r="L220" s="4"/>
-      <c r="M220" s="4"/>
-      <c r="N220" s="4"/>
-      <c r="O220" s="4"/>
-      <c r="P220" s="4"/>
-      <c r="Q220" s="4"/>
-      <c r="R220" s="4"/>
-      <c r="Y220" s="4"/>
-      <c r="Z220" s="4"/>
-      <c r="AA220" s="4"/>
-      <c r="AB220" s="4"/>
-      <c r="AD220" s="4"/>
-      <c r="AE220" s="4"/>
-      <c r="AF220" s="4"/>
-      <c r="AG220" s="4"/>
-      <c r="AJ220" s="4"/>
-      <c r="AK220" s="4"/>
-      <c r="AL220" s="4"/>
-      <c r="AM220" s="4"/>
-      <c r="AN220" s="4"/>
-      <c r="AO220" s="4"/>
-      <c r="AP220" s="4"/>
-      <c r="AQ220" s="4"/>
-      <c r="AR220" s="4"/>
-      <c r="AS220" s="4"/>
-      <c r="AT220" s="4"/>
-      <c r="AU220" s="4"/>
-      <c r="AV220" s="4"/>
-      <c r="AW220" s="4"/>
-      <c r="AX220" s="4"/>
-      <c r="AY220" s="4"/>
-      <c r="AZ220" s="4"/>
-      <c r="BA220" s="4"/>
-      <c r="BB220" s="4"/>
-      <c r="BC220" s="4"/>
-      <c r="BD220" s="4"/>
+    <row r="219" spans="1:57" customFormat="1" ht="14.5">
+      <c r="A219" t="s">
+        <v>379</v>
+      </c>
+      <c r="B219" t="s">
+        <v>80</v>
+      </c>
+      <c r="G219" s="30">
+        <v>44483</v>
+      </c>
+      <c r="H219" s="30">
+        <v>44488</v>
+      </c>
+      <c r="I219">
+        <v>2</v>
+      </c>
+      <c r="J219" t="s">
+        <v>81</v>
+      </c>
+      <c r="K219" t="s">
+        <v>81</v>
+      </c>
+      <c r="L219" t="s">
+        <v>81</v>
+      </c>
+      <c r="M219" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="N219" s="31">
+        <v>30.891020000000001</v>
+      </c>
+      <c r="O219" s="31">
+        <v>35.818869999999997</v>
+      </c>
+      <c r="P219" s="31">
+        <v>33.290109999999999</v>
+      </c>
+      <c r="Q219" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="R219" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="S219">
+        <v>0.27487257799999998</v>
+      </c>
+      <c r="T219">
+        <v>96.140852499999994</v>
+      </c>
+      <c r="U219" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="V219" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="W219" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="X219" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y219">
+        <v>11.569601710000001</v>
+      </c>
+      <c r="Z219">
+        <v>10.875452080000001</v>
+      </c>
+      <c r="AA219">
+        <v>5.351816575</v>
+      </c>
+      <c r="AB219">
+        <v>93.345382369999996</v>
+      </c>
+      <c r="AC219">
+        <v>4.0720983249999998</v>
+      </c>
+      <c r="AD219">
+        <v>4.4580000000000002</v>
+      </c>
+      <c r="AE219">
+        <v>0.308</v>
+      </c>
+      <c r="AH219">
+        <v>10.06647824</v>
+      </c>
+      <c r="AI219">
+        <v>91.755717869999998</v>
+      </c>
+      <c r="AJ219">
+        <v>1.376100645</v>
+      </c>
+      <c r="AK219">
+        <v>99.515925060000001</v>
+      </c>
+      <c r="AL219">
+        <v>1296.029591</v>
+      </c>
+      <c r="AM219">
+        <v>99.984401239999997</v>
+      </c>
+      <c r="AN219">
+        <v>7.5</v>
+      </c>
+      <c r="AO219">
+        <v>91.365897930000003</v>
+      </c>
+      <c r="AP219">
+        <v>100</v>
+      </c>
+      <c r="AQ219">
+        <v>100</v>
+      </c>
+      <c r="AR219">
+        <v>331</v>
+      </c>
+      <c r="AS219">
+        <v>100</v>
+      </c>
+      <c r="AT219">
+        <v>605.29999999999995</v>
+      </c>
+      <c r="AU219">
+        <v>1.7</v>
+      </c>
+      <c r="AV219">
+        <v>22.6</v>
+      </c>
+      <c r="AW219">
+        <v>2.1</v>
+      </c>
+      <c r="AX219">
+        <v>100</v>
+      </c>
+      <c r="AY219">
+        <v>88.298362905000005</v>
+      </c>
+      <c r="AZ219">
+        <v>4</v>
+      </c>
+      <c r="BA219">
+        <v>8527.6</v>
+      </c>
+      <c r="BB219">
+        <v>0.15</v>
+      </c>
+      <c r="BC219">
+        <v>22.04</v>
+      </c>
+      <c r="BD219">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="220" spans="1:57" customFormat="1" ht="14.5">
+      <c r="A220" t="s">
+        <v>380</v>
+      </c>
+      <c r="B220" t="s">
+        <v>80</v>
+      </c>
+      <c r="G220" s="30">
+        <v>44483</v>
+      </c>
+      <c r="H220" s="30">
+        <v>44488</v>
+      </c>
+      <c r="I220">
+        <v>2</v>
+      </c>
+      <c r="J220" t="s">
+        <v>81</v>
+      </c>
+      <c r="K220" t="s">
+        <v>81</v>
+      </c>
+      <c r="L220" t="s">
+        <v>81</v>
+      </c>
+      <c r="M220" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="N220" s="31">
+        <v>42.413870000000003</v>
+      </c>
+      <c r="O220" s="31">
+        <v>34.488790000000002</v>
+      </c>
+      <c r="P220" s="31">
+        <v>23.097339999999999</v>
+      </c>
+      <c r="Q220" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="R220" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="S220">
+        <v>0.24391301100000001</v>
+      </c>
+      <c r="T220">
+        <v>90.164285509999999</v>
+      </c>
+      <c r="U220" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="V220" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="W220" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="X220" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y220">
+        <v>20.115500409999999</v>
+      </c>
+      <c r="Z220">
+        <v>27.269102759999999</v>
+      </c>
+      <c r="AA220">
+        <v>5.8619771470000002</v>
+      </c>
+      <c r="AB220">
+        <v>99.92635602</v>
+      </c>
+      <c r="AC220">
+        <v>3.8526722050000002</v>
+      </c>
+      <c r="AD220">
+        <v>4.2359999999999998</v>
+      </c>
+      <c r="AE220">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="AH220">
+        <v>12.686075689999999</v>
+      </c>
+      <c r="AI220">
+        <v>96.957393749999994</v>
+      </c>
+      <c r="AJ220">
+        <v>1.092368553</v>
+      </c>
+      <c r="AK220">
+        <v>94.962500520000006</v>
+      </c>
+      <c r="AL220">
+        <v>1316.148402</v>
+      </c>
+      <c r="AM220">
+        <v>99.99948698</v>
+      </c>
+      <c r="AN220">
+        <v>7.4</v>
+      </c>
+      <c r="AO220">
+        <v>96.548182600000004</v>
+      </c>
+      <c r="AP220">
+        <v>135.4</v>
+      </c>
+      <c r="AQ220">
+        <v>100</v>
+      </c>
+      <c r="AR220">
+        <v>587.5</v>
+      </c>
+      <c r="AS220">
+        <v>100</v>
+      </c>
+      <c r="AT220">
+        <v>497.5</v>
+      </c>
+      <c r="AU220">
+        <v>2.9</v>
+      </c>
+      <c r="AV220">
+        <v>18.2</v>
+      </c>
+      <c r="AW220">
+        <v>2.7</v>
+      </c>
+      <c r="AX220">
+        <v>100</v>
+      </c>
+      <c r="AY220">
+        <v>90.582730814000001</v>
+      </c>
+      <c r="AZ220">
+        <v>3.08</v>
+      </c>
+      <c r="BA220">
+        <v>7423.8</v>
+      </c>
+      <c r="BB220">
+        <v>0.18</v>
+      </c>
+      <c r="BC220">
+        <v>25.83</v>
+      </c>
+      <c r="BD220">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="221" spans="1:57" customFormat="1" ht="14.5">
+      <c r="A221" t="s">
+        <v>378</v>
+      </c>
+      <c r="B221" t="s">
+        <v>55</v>
+      </c>
+      <c r="G221" s="28">
+        <v>44320</v>
+      </c>
+      <c r="H221" s="28">
+        <v>44350</v>
+      </c>
+      <c r="I221" s="29">
+        <v>1</v>
+      </c>
+      <c r="J221" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="K221" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="L221" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="M221" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="N221" s="29">
+        <v>10.863350000000001</v>
+      </c>
+      <c r="O221" s="29">
+        <v>43.748989999999999</v>
+      </c>
+      <c r="P221" s="29">
+        <v>45.387659999999997</v>
+      </c>
+      <c r="S221" s="29">
+        <v>0.21149799999999999</v>
+      </c>
+      <c r="T221" s="29">
+        <v>78.590199999999996</v>
+      </c>
+      <c r="Y221" s="29">
+        <v>14.96569</v>
+      </c>
+      <c r="Z221" s="29">
+        <v>14.58414</v>
+      </c>
+      <c r="AA221" s="29">
+        <v>4.49</v>
+      </c>
+      <c r="AB221" s="29">
+        <v>70.693219999999997</v>
+      </c>
+      <c r="AD221" s="29">
+        <v>2.4039999999999999</v>
+      </c>
+      <c r="AE221" s="29">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="AH221" s="29">
+        <v>5.4341530000000002</v>
+      </c>
+      <c r="AI221" s="29">
+        <v>43.829940000000001</v>
+      </c>
+      <c r="AJ221" s="29">
+        <v>0.96894499999999995</v>
+      </c>
+      <c r="AK221" s="29">
+        <v>89.061719999999994</v>
+      </c>
+      <c r="AL221" s="29">
+        <v>877.90589999999997</v>
+      </c>
+      <c r="AM221" s="29">
+        <v>93.505420000000001</v>
+      </c>
+      <c r="AN221" s="29">
+        <v>6.81</v>
+      </c>
+      <c r="AO221" s="29">
+        <v>100</v>
+      </c>
+      <c r="AP221" s="29">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AQ221" s="29">
+        <v>63.6</v>
+      </c>
+      <c r="AR221" s="29">
+        <v>174.5</v>
+      </c>
+      <c r="AS221" s="29">
+        <v>100</v>
+      </c>
+      <c r="AT221" s="29">
+        <v>1124.3</v>
+      </c>
+      <c r="AU221" s="29">
+        <v>10.8</v>
+      </c>
+      <c r="AV221" s="29">
+        <v>33.5</v>
+      </c>
+      <c r="AW221" s="29">
+        <v>0.6</v>
+      </c>
+      <c r="AX221" s="29">
+        <v>100</v>
+      </c>
+      <c r="AY221" s="29">
+        <v>75.38646</v>
+      </c>
+      <c r="AZ221" s="29">
+        <v>17.53</v>
+      </c>
+      <c r="BA221" s="29">
+        <v>2002.9</v>
+      </c>
+      <c r="BB221" s="29">
+        <v>0.26</v>
+      </c>
+      <c r="BC221" s="29">
+        <v>5.63</v>
+      </c>
+      <c r="BD221" s="29">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="222" spans="1:57" customFormat="1" ht="14.5">
+      <c r="A222" t="s">
+        <v>381</v>
+      </c>
+      <c r="B222" t="s">
+        <v>55</v>
+      </c>
+      <c r="G222" s="28">
+        <v>44320</v>
+      </c>
+      <c r="H222" s="28">
+        <v>44350</v>
+      </c>
+      <c r="I222" s="29">
+        <v>1</v>
+      </c>
+      <c r="J222" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="K222" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="L222" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="M222" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="N222" s="29">
+        <v>8.9501290000000004</v>
+      </c>
+      <c r="O222" s="29">
+        <v>47.783340000000003</v>
+      </c>
+      <c r="P222" s="29">
+        <v>43.266530000000003</v>
+      </c>
+      <c r="S222" s="29">
+        <v>0.23846999999999999</v>
+      </c>
+      <c r="T222" s="29">
+        <v>88.632930000000002</v>
+      </c>
+      <c r="Y222" s="29">
+        <v>18.482410000000002</v>
+      </c>
+      <c r="Z222" s="29">
+        <v>19.232869999999998</v>
+      </c>
+      <c r="AA222" s="29">
+        <v>4.92</v>
+      </c>
+      <c r="AB222" s="29">
+        <v>84.666210000000007</v>
+      </c>
+      <c r="AD222" s="29">
+        <v>2.8319999999999999</v>
+      </c>
+      <c r="AE222" s="29">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="AH222" s="29">
+        <v>5.306832</v>
+      </c>
+      <c r="AI222" s="29">
+        <v>42.1631</v>
+      </c>
+      <c r="AJ222" s="29">
+        <v>0.86963900000000005</v>
+      </c>
+      <c r="AK222" s="29">
+        <v>81.561940000000007</v>
+      </c>
+      <c r="AL222" s="29">
+        <v>886.86419999999998</v>
+      </c>
+      <c r="AM222" s="29">
+        <v>94.053979999999996</v>
+      </c>
+      <c r="AN222" s="29">
+        <v>6.54</v>
+      </c>
+      <c r="AO222" s="29">
+        <v>100</v>
+      </c>
+      <c r="AP222" s="29">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AQ222" s="29">
+        <v>63.6</v>
+      </c>
+      <c r="AR222" s="29">
+        <v>167.2</v>
+      </c>
+      <c r="AS222" s="29">
+        <v>100</v>
+      </c>
+      <c r="AT222" s="29">
+        <v>791.1</v>
+      </c>
+      <c r="AU222" s="29">
+        <v>3.3</v>
+      </c>
+      <c r="AV222" s="29">
+        <v>12.1</v>
+      </c>
+      <c r="AW222" s="29">
+        <v>0.7</v>
+      </c>
+      <c r="AX222" s="29">
+        <v>100</v>
+      </c>
+      <c r="AY222" s="29">
+        <v>77.391099999999994</v>
+      </c>
+      <c r="AZ222" s="29">
+        <v>19.11</v>
+      </c>
+      <c r="BA222" s="29">
+        <v>2239.1</v>
+      </c>
+      <c r="BB222" s="29">
+        <v>0.16</v>
+      </c>
+      <c r="BC222" s="29">
+        <v>5.15</v>
+      </c>
+      <c r="BD222" s="29">
+        <v>0.2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -37168,23 +37670,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C9CBBF-3A7A-A049-8B02-97968425B608}">
   <dimension ref="A1:H16387"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.21875" customWidth="1"/>
+    <col min="1" max="1" width="20.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="127.95" customHeight="1">
+    <row r="1" spans="1:8" ht="128" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="21">
       <c r="A2" s="21" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="G2" s="25"/>
     </row>
@@ -37195,37 +37697,37 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="21" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="D4" s="3"/>
       <c r="G4" s="21"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="26" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="G5" s="21"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="26" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="D6" s="3"/>
       <c r="G6" s="26"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="28" t="s">
-        <v>376</v>
+      <c r="A7" s="21" t="s">
+        <v>360</v>
       </c>
       <c r="D7" s="3"/>
       <c r="G7" s="26"/>
     </row>
-    <row r="8" spans="1:8" ht="31.05" customHeight="1">
+    <row r="8" spans="1:8" ht="31" customHeight="1">
       <c r="A8" s="23" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="D8" s="3"/>
     </row>
@@ -37234,7 +37736,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="D9" s="3"/>
       <c r="G9" s="22"/>
@@ -37245,7 +37747,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="G10" s="22"/>
       <c r="H10" s="20"/>
@@ -37255,197 +37757,197 @@
         <v>2</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="G11" s="22"/>
       <c r="H11" s="20"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="22" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="G12" s="22"/>
       <c r="H12" s="20"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="22" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="G13" s="22"/>
       <c r="H13" s="20"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="22" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.6">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.5">
       <c r="A15" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.6">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.5">
       <c r="A16" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.6">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.5">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.6">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.5">
       <c r="A18" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.6">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.5">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.6">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.5">
       <c r="A20" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.6">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.5">
       <c r="A21" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.6">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.5">
       <c r="A22" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.6">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.5">
       <c r="A23" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.6">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.5">
       <c r="A24" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.6">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.5">
       <c r="A25" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.6">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.5">
       <c r="A26" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.6">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.5">
       <c r="A27" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15.6">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.5">
       <c r="A28" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15.6">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.5">
       <c r="A29" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15.6">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.5">
       <c r="A30" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15.6">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.5">
       <c r="A31" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15.6">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.5">
       <c r="A32" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.6">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.5">
       <c r="A33" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.6">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.5">
       <c r="A34" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -37453,247 +37955,247 @@
         <v>23</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="15.6">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.5">
       <c r="A36" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="15.6">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.5">
       <c r="A37" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="15.6">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.5">
       <c r="A38" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="15.6">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.5">
       <c r="A39" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="15.6">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.5">
       <c r="A40" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="15.6">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.5">
       <c r="A41" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="15.6">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15.5">
       <c r="A42" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="15.6">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.5">
       <c r="A43" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="15.6">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.5">
       <c r="A44" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="15.6">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.5">
       <c r="A45" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="15.6">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15.5">
       <c r="A46" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="15.6">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15.5">
       <c r="A47" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="15.6">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15.5">
       <c r="A48" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="15.6">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15.5">
       <c r="A49" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="15.6">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.5">
       <c r="A50" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="15.6">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15.5">
       <c r="A51" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B51" s="27" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="15.6">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15.5">
       <c r="A52" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B52" s="27" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="15.6">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15.5">
       <c r="A53" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B53" s="27" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="15.6">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15.5">
       <c r="A54" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B54" s="27" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="15.6">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15.5">
       <c r="A55" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B55" s="27" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="15.6">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15.5">
       <c r="A56" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B56" s="27" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="15.6">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15.5">
       <c r="A57" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B57" s="27" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="15.6">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15.5">
       <c r="A58" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B58" s="27" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="15.6">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15.5">
       <c r="A59" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B59" s="27" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="15.6">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15.5">
       <c r="A60" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B60" s="27" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="15.6">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15.5">
       <c r="A61" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B61" s="27" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="15.6">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15.5">
       <c r="A62" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B62" s="27" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="15.6">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15.5">
       <c r="A63" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B63" s="27" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="15.6">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15.5">
       <c r="A64" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B64" s="27" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="15.6">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15.5">
       <c r="A65" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B65" s="27" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -86649,12 +87151,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -86881,15 +87380,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91078294-7712-4328-8F3A-550CAB972E70}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F890531B-4E7B-4DF0-8BF4-270C4ED3C4B0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -86914,10 +87417,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F890531B-4E7B-4DF0-8BF4-270C4ED3C4B0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91078294-7712-4328-8F3A-550CAB972E70}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>